--- a/利润表/688136.xlsx
+++ b/利润表/688136.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>94546763.09999999</v>
+        <v>94163686.68000001</v>
       </c>
       <c r="P2" t="n">
-        <v>566186931.92</v>
+        <v>890611692.1900001</v>
       </c>
       <c r="Q2" t="n">
-        <v>453292677.93</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>771036100.39</v>
+      </c>
+      <c r="R2" t="n">
+        <v>46.0330740519</v>
+      </c>
       <c r="S2" t="n">
-        <v>97131389.16</v>
+        <v>168240269.76</v>
       </c>
       <c r="T2" t="n">
-        <v>97131389.16</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>168240269.76</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30.2953699038</v>
+      </c>
       <c r="V2" t="n">
-        <v>286426368.98</v>
+        <v>468079784.5</v>
       </c>
       <c r="W2" t="n">
-        <v>28533845.15</v>
+        <v>73333863.04000001</v>
       </c>
       <c r="X2" t="n">
-        <v>7604528.43</v>
+        <v>11929829.04</v>
       </c>
       <c r="Y2" t="n">
-        <v>113148394.65</v>
+        <v>121270238.31</v>
       </c>
       <c r="Z2" t="n">
-        <v>112765538.01</v>
+        <v>121268550.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>18218774.91</v>
+        <v>27104864.02</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>4304604.77</v>
+        <v>6775507.39</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -789,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>4.3904425265</v>
+        <v>44.6173513121</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10.01034943244</v>
+        <v>35.777713408945</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.076009731116</v>
+        <v>58.547012783481</v>
       </c>
       <c r="AS2" t="n">
-        <v>94472967.53</v>
+        <v>108296690.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.148284758379</v>
+        <v>47.086314352647</v>
       </c>
     </row>
   </sheetData>

--- a/利润表/688136.xlsx
+++ b/利润表/688136.xlsx
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>94163686.68000001</v>
+        <v>59391649.85</v>
       </c>
       <c r="P2" t="n">
-        <v>890611692.1900001</v>
+        <v>615840135.4400001</v>
       </c>
       <c r="Q2" t="n">
-        <v>771036100.39</v>
-      </c>
-      <c r="R2" t="n">
-        <v>46.0330740519</v>
-      </c>
+        <v>527987310.68</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>168240269.76</v>
+        <v>129122216.61</v>
       </c>
       <c r="T2" t="n">
-        <v>168240269.76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>30.2953699038</v>
-      </c>
+        <v>129122216.61</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>468079784.5</v>
+        <v>327654871.3</v>
       </c>
       <c r="W2" t="n">
-        <v>73333863.04000001</v>
+        <v>22705993.08</v>
       </c>
       <c r="X2" t="n">
-        <v>11929829.04</v>
+        <v>10872165.84</v>
       </c>
       <c r="Y2" t="n">
-        <v>121270238.31</v>
+        <v>89315275.14</v>
       </c>
       <c r="Z2" t="n">
-        <v>121268550.7</v>
+        <v>74617756.03</v>
       </c>
       <c r="AA2" t="n">
-        <v>27104864.02</v>
+        <v>15226106.18</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>6775507.39</v>
+        <v>5284648.77</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>44.6173513121</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>35.777713408945</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>58.547012783481</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>108296690.67</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>47.086314352647</v>
-      </c>
+        <v>73627992.16</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
